--- a/biology/Zoologie/Heliconius_hortense/Heliconius_hortense.xlsx
+++ b/biology/Zoologie/Heliconius_hortense/Heliconius_hortense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius hortense est un insecte lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Heliconiinae et au genre Heliconius.
 </t>
@@ -511,11 +523,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliconius hortense a été décrit par Félix Édouard Guérin-Méneville en 1844 sous le nom initial d' Holiconia hortense[1].
-Nom vernaculaire
-Heliconius hortense se nomme Mexican Longwing en anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius hortense a été décrit par Félix Édouard Guérin-Méneville en 1844 sous le nom initial d' Holiconia hortense.
 </t>
         </is>
       </c>
@@ -541,10 +553,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius hortense se nomme Mexican Longwing en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Heliconius_hortense</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_hortense</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius hortense est un grand papillon marron, au corps fin et aux longues ailes antérieures au bord externe festonné (comme le bord externe des ailes postérieures) et au bord interne légèrement concave.
 Le dessus des ailes antérieures est barré d'une bande blanche irrégulière partant de la moitié du bord costal vers l'angle interne et celui des ailes postérieures d'une très large bande rouge orangé partant du bord interne vers l'apex.
@@ -553,73 +604,45 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Heliconius_hortense</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Heliconius_hortense</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Passifloraceae (Plectostemma)[3].
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Passifloraceae (Plectostemma).
 Sur les autres projets Wikimedia :
 Heliconius hortense, sur Wikimedia CommonsHeliconius hortense, sur Wikispecies
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Heliconius_hortense</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Heliconius_hortense</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliconius hortense  est présent au Mexique, au Nicaragua, au Honduras, au Guatemala et en Équateur[1],[2],[3].
-Biotope
-Heliconius hortense réside dans la forêt tropicale humide, jusqu'à 2 300 m[3].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -641,10 +664,82 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius hortense  est présent au Mexique, au Nicaragua, au Honduras, au Guatemala et en Équateur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Heliconius_hortense</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_hortense</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius hortense réside dans la forêt tropicale humide, jusqu'à 2 300 m.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Heliconius_hortense</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_hortense</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
